--- a/test-data/credit_simulation_data.xlsx
+++ b/test-data/credit_simulation_data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25917"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC335BAE-7B2A-463E-A364-EFF8EDF3B28D}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D14FAE4C-EF61-4D93-8889-6EC0B1F05FFD}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>user</t>
   </si>
@@ -43,6 +43,63 @@
   </si>
   <si>
     <t>month_of_grace</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>message_validation</t>
+  </si>
+  <si>
+    <t>ci_document</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>commune</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>account_type</t>
+  </si>
+  <si>
+    <t>account_number</t>
+  </si>
+  <si>
+    <t>1400000</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Sin meses de gracia</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>$ 1.400.000 - 54 Cuotas</t>
+  </si>
+  <si>
+    <t>PROVIDENCIA 123</t>
+  </si>
+  <si>
+    <t>Bio-Bio</t>
+  </si>
+  <si>
+    <t>Arauco</t>
+  </si>
+  <si>
+    <t>Itau</t>
+  </si>
+  <si>
+    <t>Cuenta Ahorro</t>
   </si>
 </sst>
 </file>
@@ -395,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -406,10 +463,16 @@
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,22 +488,76 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>132121109</v>
       </c>
       <c r="B2" s="1">
         <v>12345678</v>
       </c>
-      <c r="C2" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="D2" s="1">
-        <v>40</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>12345678</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2">
+        <v>123456789</v>
       </c>
     </row>
   </sheetData>

--- a/test-data/credit_simulation_data.xlsx
+++ b/test-data/credit_simulation_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25917"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="89" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D14FAE4C-EF61-4D93-8889-6EC0B1F05FFD}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9C21504-BD7B-4113-9E2B-A660608EC8B7}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>user</t>
   </si>
@@ -72,7 +72,10 @@
     <t>account_number</t>
   </si>
   <si>
-    <t>1400000</t>
+    <t>246757275</t>
+  </si>
+  <si>
+    <t>800000</t>
   </si>
   <si>
     <t>54</t>
@@ -84,7 +87,7 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>$ 1.400.000 - 54 Cuotas</t>
+    <t>$ 800.000 - 54 Cuotas</t>
   </si>
   <si>
     <t>PROVIDENCIA 123</t>
@@ -454,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -517,44 +520,44 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>132121109</v>
+      <c r="A2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B2" s="1">
         <v>12345678</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>12345678</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2">
         <v>123456789</v>

--- a/test-data/credit_simulation_data.xlsx
+++ b/test-data/credit_simulation_data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="93" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9C21504-BD7B-4113-9E2B-A660608EC8B7}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{182D9901-BBC4-4ABA-966D-38696B26457E}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>user</t>
   </si>
@@ -72,13 +72,22 @@
     <t>account_number</t>
   </si>
   <si>
-    <t>246757275</t>
-  </si>
-  <si>
-    <t>800000</t>
-  </si>
-  <si>
-    <t>54</t>
+    <t>assert_request_amount</t>
+  </si>
+  <si>
+    <t>assert_rut</t>
+  </si>
+  <si>
+    <t>55589143</t>
+  </si>
+  <si>
+    <t>QA2022</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>48</t>
   </si>
   <si>
     <t>Sin meses de gracia</t>
@@ -87,7 +96,7 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>$ 800.000 - 54 Cuotas</t>
+    <t>$ 1.500.000 - 48 Cuotas</t>
   </si>
   <si>
     <t>PROVIDENCIA 123</t>
@@ -103,19 +112,39 @@
   </si>
   <si>
     <t>Cuenta Ahorro</t>
+  </si>
+  <si>
+    <t>$ 1.500.000</t>
+  </si>
+  <si>
+    <t>5.558.914-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,9 +167,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -159,7 +190,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -447,7 +478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -455,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -473,9 +504,11 @@
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="13" width="14.28515625" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,49 +551,61 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2">
+        <v>103238224</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2">
         <v>12345678</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2">
-        <v>12345678</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2">
-        <v>123456789</v>
+      <c r="O2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/test-data/credit_simulation_data.xlsx
+++ b/test-data/credit_simulation_data.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="130" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{182D9901-BBC4-4ABA-966D-38696B26457E}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E51BCEC7-2FC9-4D85-8717-EE694B91357F}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PF1.0" sheetId="2" r:id="rId1"/>
+    <sheet name="PF2.0" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>user</t>
   </si>
@@ -42,42 +43,96 @@
     <t>dues</t>
   </si>
   <si>
+    <t>street_number</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>message_validation</t>
+  </si>
+  <si>
+    <t>ci_document</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>commune</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>account_type</t>
+  </si>
+  <si>
+    <t>account_number</t>
+  </si>
+  <si>
+    <t>assert_request_amount</t>
+  </si>
+  <si>
+    <t>assert_rut</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>54597274</t>
+  </si>
+  <si>
+    <t>Qa2022</t>
+  </si>
+  <si>
+    <t>1200000</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Monto $ 1.200.000 - 54 Cuotas</t>
+  </si>
+  <si>
+    <t>PROVIDENCIA</t>
+  </si>
+  <si>
+    <t>Región de Atacama</t>
+  </si>
+  <si>
+    <t>Caldera</t>
+  </si>
+  <si>
+    <t>Citibank</t>
+  </si>
+  <si>
+    <t>Cuenta Corriente</t>
+  </si>
+  <si>
+    <t>$ 1.200.000</t>
+  </si>
+  <si>
+    <t>5.459.727-4</t>
+  </si>
+  <si>
+    <t>faq.sau@gmail.com</t>
+  </si>
+  <si>
     <t>month_of_grace</t>
   </si>
   <si>
-    <t>insurance</t>
-  </si>
-  <si>
-    <t>message_validation</t>
-  </si>
-  <si>
-    <t>ci_document</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>commune</t>
-  </si>
-  <si>
-    <t>bank</t>
-  </si>
-  <si>
-    <t>account_type</t>
-  </si>
-  <si>
-    <t>account_number</t>
-  </si>
-  <si>
-    <t>assert_request_amount</t>
-  </si>
-  <si>
-    <t>assert_rut</t>
-  </si>
-  <si>
     <t>55589143</t>
   </si>
   <si>
@@ -91,9 +146,6 @@
   </si>
   <si>
     <t>Sin meses de gracia</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>$ 1.500.000 - 48 Cuotas</t>
@@ -124,7 +176,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +198,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -164,16 +224,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -485,11 +548,161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB1628D-1883-4C33-91A1-C2AE89D8FF92}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2">
+        <v>222222222</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2">
+        <v>5459727</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2">
+        <v>31234567</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{C0A95FA7-0114-4D03-88D3-38B9E86E262A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -522,7 +735,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -560,52 +773,52 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2">
         <v>103238224</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N2">
         <v>12345678</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/test-data/credit_simulation_data.xlsx
+++ b/test-data/credit_simulation_data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="167" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E51BCEC7-2FC9-4D85-8717-EE694B91357F}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF14D0EA-E2AE-4293-8C5E-992F7B6CE741}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>user</t>
   </si>
@@ -85,6 +85,12 @@
     <t>phone</t>
   </si>
   <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>company_name</t>
+  </si>
+  <si>
     <t>54597274</t>
   </si>
   <si>
@@ -128,6 +134,9 @@
   </si>
   <si>
     <t>faq.sau@gmail.com</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>month_of_grace</t>
@@ -549,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB1628D-1883-4C33-91A1-C2AE89D8FF92}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -575,9 +584,10 @@
     <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.28515625" customWidth="1"/>
     <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -632,61 +642,73 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2">
         <v>222222222</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N2">
         <v>5459727</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R2">
         <v>31234567</v>
+      </c>
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +757,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -773,52 +795,52 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2">
         <v>103238224</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N2">
         <v>12345678</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
